--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Rates/FincadFunctions.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Rates/FincadFunctions.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Rates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Rates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EB5E85-7012-43A5-9423-8862AFB7B0AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="16155" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="26370" windowHeight="14820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AUDCurve" sheetId="4" r:id="rId1"/>
     <sheet name="aaSwap_cpn" sheetId="1" r:id="rId2"/>
     <sheet name="FincadCurve" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2766,7 +2775,7 @@
   <dimension ref="A1:O91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2802,9 +2811,9 @@
         <f>_xll.HLV5r3.Financial.Cache.CreateCurve(G2:H9, G14:J45)</f>
         <v>Market.LIVE.RateCurve.AUD-LIBOR-BBA-6M</v>
       </c>
-      <c r="J1" s="22" t="str">
-        <f>_xll.Orion.ExcelAPI.Cache.CreateRateCurveWithUnits(G2:H9, G14:G53, H14:H53, I14:I53, J14:J53)</f>
-        <v>Market.LIVE.RateCurve.AUD-LIBOR-BBA-6M</v>
+      <c r="J1" s="22" t="e">
+        <f>_xll.HLV5r3.Financial.Cache.CreateRateCurveWithUnits(G2:H9, G14:G53, H14:H53, I14:I53, J14:J53)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="2" spans="2:14">
@@ -4245,7 +4254,7 @@
       </c>
       <c r="C56" s="87">
         <f ca="1">TODAY()</f>
-        <v>43134</v>
+        <v>43647</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -4270,7 +4279,7 @@
       </c>
       <c r="C57" s="87">
         <f ca="1">C56+90</f>
-        <v>43224</v>
+        <v>43737</v>
       </c>
       <c r="D57">
         <f>D56*0.95</f>
@@ -4296,7 +4305,7 @@
       </c>
       <c r="C58" s="87">
         <f t="shared" ref="C58:C76" ca="1" si="6">C57+90</f>
-        <v>43314</v>
+        <v>43827</v>
       </c>
       <c r="D58">
         <f t="shared" ref="D58:D76" si="7">D57*0.95</f>
@@ -4322,7 +4331,7 @@
       </c>
       <c r="C59" s="87">
         <f t="shared" ca="1" si="6"/>
-        <v>43404</v>
+        <v>43917</v>
       </c>
       <c r="D59">
         <f t="shared" si="7"/>
@@ -4346,7 +4355,7 @@
       </c>
       <c r="C60" s="87">
         <f t="shared" ca="1" si="6"/>
-        <v>43494</v>
+        <v>44007</v>
       </c>
       <c r="D60">
         <f t="shared" si="7"/>
@@ -4372,7 +4381,7 @@
       </c>
       <c r="C61" s="87">
         <f t="shared" ca="1" si="6"/>
-        <v>43584</v>
+        <v>44097</v>
       </c>
       <c r="D61">
         <f t="shared" si="7"/>
@@ -4398,7 +4407,7 @@
       </c>
       <c r="C62" s="87">
         <f t="shared" ca="1" si="6"/>
-        <v>43674</v>
+        <v>44187</v>
       </c>
       <c r="D62">
         <f t="shared" si="7"/>
@@ -4422,7 +4431,7 @@
       </c>
       <c r="C63" s="87">
         <f t="shared" ca="1" si="6"/>
-        <v>43764</v>
+        <v>44277</v>
       </c>
       <c r="D63">
         <f t="shared" si="7"/>
@@ -4449,7 +4458,7 @@
       </c>
       <c r="C64" s="87">
         <f t="shared" ca="1" si="6"/>
-        <v>43854</v>
+        <v>44367</v>
       </c>
       <c r="D64">
         <f t="shared" si="7"/>
@@ -4473,7 +4482,7 @@
       </c>
       <c r="C65" s="87">
         <f t="shared" ca="1" si="6"/>
-        <v>43944</v>
+        <v>44457</v>
       </c>
       <c r="D65">
         <f t="shared" si="7"/>
@@ -4497,7 +4506,7 @@
       </c>
       <c r="C66" s="87">
         <f t="shared" ca="1" si="6"/>
-        <v>44034</v>
+        <v>44547</v>
       </c>
       <c r="D66">
         <f t="shared" si="7"/>
@@ -4521,7 +4530,7 @@
       </c>
       <c r="C67" s="87">
         <f t="shared" ca="1" si="6"/>
-        <v>44124</v>
+        <v>44637</v>
       </c>
       <c r="D67">
         <f t="shared" si="7"/>
@@ -4545,7 +4554,7 @@
       </c>
       <c r="C68" s="87">
         <f t="shared" ca="1" si="6"/>
-        <v>44214</v>
+        <v>44727</v>
       </c>
       <c r="D68">
         <f t="shared" si="7"/>
@@ -4569,7 +4578,7 @@
       </c>
       <c r="C69" s="87">
         <f t="shared" ca="1" si="6"/>
-        <v>44304</v>
+        <v>44817</v>
       </c>
       <c r="D69">
         <f t="shared" si="7"/>
@@ -4593,7 +4602,7 @@
       </c>
       <c r="C70" s="87">
         <f t="shared" ca="1" si="6"/>
-        <v>44394</v>
+        <v>44907</v>
       </c>
       <c r="D70">
         <f t="shared" si="7"/>
@@ -4617,7 +4626,7 @@
       </c>
       <c r="C71" s="87">
         <f t="shared" ca="1" si="6"/>
-        <v>44484</v>
+        <v>44997</v>
       </c>
       <c r="D71">
         <f t="shared" si="7"/>
@@ -4641,7 +4650,7 @@
       </c>
       <c r="C72" s="87">
         <f t="shared" ca="1" si="6"/>
-        <v>44574</v>
+        <v>45087</v>
       </c>
       <c r="D72">
         <f t="shared" si="7"/>
@@ -4665,7 +4674,7 @@
       </c>
       <c r="C73" s="87">
         <f t="shared" ca="1" si="6"/>
-        <v>44664</v>
+        <v>45177</v>
       </c>
       <c r="D73">
         <f t="shared" si="7"/>
@@ -4689,7 +4698,7 @@
       </c>
       <c r="C74" s="87">
         <f t="shared" ca="1" si="6"/>
-        <v>44754</v>
+        <v>45267</v>
       </c>
       <c r="D74">
         <f t="shared" si="7"/>
@@ -4713,7 +4722,7 @@
       </c>
       <c r="C75" s="87">
         <f t="shared" ca="1" si="6"/>
-        <v>44844</v>
+        <v>45357</v>
       </c>
       <c r="D75">
         <f t="shared" si="7"/>
@@ -4737,7 +4746,7 @@
       </c>
       <c r="C76" s="87">
         <f t="shared" ca="1" si="6"/>
-        <v>44934</v>
+        <v>45447</v>
       </c>
       <c r="D76">
         <f t="shared" si="7"/>
@@ -4964,8 +4973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5021,7 +5030,7 @@
       </c>
       <c r="E2" s="9"/>
       <c r="F2" t="str">
-        <f t="array" ref="F2:J29">_xll.HLV5r3.Financial.Cache.FincadSwapCpnSchedule(B1, B2, B3, B4, B5, B6, D18, B7, B8, B9, B10, A23:B45, B11, B12, B13, B14, A23:B45, layout)</f>
+        <f t="array" ref="F2:J29">_xll.HLV5r3.Financial.Cache.FincadSwapCouponSchedule(B1, B2, B3, B4, B5, B6, D18, B7, B8, B9, B10, A23:B45, B11, B12, B13, B14, A23:B45, layout)</f>
         <v>Pay cashflows:</v>
       </c>
       <c r="G2" t="str">
@@ -6864,8 +6873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C3:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
